--- a/results/10-2022/contributions-comparison-10-2022.xlsx
+++ b/results/10-2022/contributions-comparison-10-2022.xlsx
@@ -1017,31 +1017,31 @@
         <v>-0.0866</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0189</v>
+        <v>-0.0165</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0137</v>
+        <v>-0.0037</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1496</v>
+        <v>0.1672</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0511</v>
+        <v>0.0786</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0041</v>
+        <v>0.0371</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.048</v>
+        <v>-0.0128</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0918</v>
+        <v>-0.0628</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0071</v>
+        <v>0.0278</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0191</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="14">
@@ -1099,31 +1099,31 @@
         <v>-0.6023</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.4293</v>
+        <v>-0.4514</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2972</v>
+        <v>-0.2684</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.2003</v>
+        <v>-0.1513</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.1331</v>
+        <v>-0.0996</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0215</v>
+        <v>-0.0022</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2833</v>
+        <v>0.2975</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2871</v>
+        <v>0.3056</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3106</v>
+        <v>0.3289</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2942</v>
+        <v>0.3225</v>
       </c>
     </row>
     <row r="16">
@@ -1427,31 +1427,31 @@
         <v>-0.8555</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.8122</v>
+        <v>-0.5935</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.3733</v>
+        <v>-0.1412</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.2418</v>
+        <v>-0.015</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.1678</v>
+        <v>0.0539</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0535</v>
+        <v>-0.0446</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0508</v>
+        <v>-0.0601</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0487</v>
+        <v>-0.0578</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0467</v>
+        <v>-0.0556</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0264</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="24">
@@ -1755,31 +1755,31 @@
         <v>-2.8519</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.1288</v>
+        <v>-1.9323</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.9507</v>
+        <v>-1.6849</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.6888</v>
+        <v>-2.403</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.133</v>
+        <v>-0.8625</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.4886</v>
+        <v>-0.4285</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1933</v>
+        <v>-0.1597</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.3996</v>
+        <v>-0.3649</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.4059</v>
+        <v>-0.3748</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0801</v>
+        <v>-0.0532</v>
       </c>
     </row>
     <row r="32">
@@ -2411,31 +2411,31 @@
         <v>-0.0957</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0134</v>
+        <v>-0.0159</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0794</v>
+        <v>0.0745</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0021</v>
+        <v>-0.0054</v>
       </c>
       <c r="M47" t="n">
-        <v>0.186</v>
+        <v>0.1739</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1514</v>
+        <v>0.1421</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1252</v>
+        <v>0.1185</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0992</v>
+        <v>0.0954</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0677</v>
+        <v>-0.0667</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.0545</v>
+        <v>-0.0538</v>
       </c>
     </row>
     <row r="48">
@@ -3313,31 +3313,31 @@
         <v>0.0045</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0047</v>
+        <v>0.0071</v>
       </c>
       <c r="K69" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="R69" t="n">
         <v>0.0048</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="R69" t="n">
-        <v>-0.0017</v>
       </c>
     </row>
     <row r="70">
@@ -3395,31 +3395,31 @@
         <v>0.2658</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2581</v>
+        <v>0.236</v>
       </c>
       <c r="K71" t="n">
-        <v>0.123</v>
+        <v>0.1518</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1204</v>
+        <v>0.1694</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1179</v>
+        <v>0.1514</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1154</v>
+        <v>0.1347</v>
       </c>
       <c r="O71" t="n">
-        <v>0.1133</v>
+        <v>0.1275</v>
       </c>
       <c r="P71" t="n">
-        <v>0.1111</v>
+        <v>0.1296</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.0121</v>
+        <v>0.0063</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.0115</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="72">
@@ -3723,31 +3723,31 @@
         <v>0.1483</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.0335</v>
+        <v>0.1852</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.0328</v>
+        <v>0.1992</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.0322</v>
+        <v>0.1946</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.1718</v>
+        <v>0.0499</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0002</v>
+        <v>0.0092</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0004</v>
+        <v>-0.0089</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0004</v>
+        <v>-0.0087</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0004</v>
+        <v>-0.0085</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0004</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="80">
@@ -4051,31 +4051,31 @@
         <v>0.5796</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2017</v>
+        <v>0.3982</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0594</v>
+        <v>0.3253</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0766</v>
+        <v>0.3624</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.0305</v>
+        <v>0.2401</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1427</v>
+        <v>0.2028</v>
       </c>
       <c r="O87" t="n">
-        <v>0.1409</v>
+        <v>0.1745</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1386</v>
+        <v>0.1732</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.0328</v>
+        <v>-0.0016</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.0095</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="88">
@@ -4707,31 +4707,31 @@
         <v>-0.0368</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.0366</v>
+        <v>-0.0391</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.0364</v>
+        <v>-0.0414</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.0364</v>
+        <v>-0.0439</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.0026</v>
+        <v>-0.0147</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.0016</v>
+        <v>-0.011</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.0007</v>
+        <v>-0.0073</v>
       </c>
       <c r="P103" t="n">
-        <v>0.0003</v>
+        <v>-0.0036</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0023</v>
+        <v>0.0032</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0021</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="104">
